--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1245611.369468468</v>
+        <v>1278850.202506633</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453902</v>
+        <v>5562152.400446148</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.11917867</v>
+        <v>2921012.045488843</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7957172.632164466</v>
+        <v>8175039.90988662</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>372.0434871531153</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>347.6359790657717</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.01732390352652</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>262.253757051989</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -883,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -908,10 +910,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>320.0730164348423</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>341.5246551443416</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>42.43741174507676</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>162.8849810482525</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1139,16 +1141,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>129.0847475754886</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>265.8982128397139</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>53.49405934753973</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>113.1773371911337</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1376,16 +1378,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>109.6793419192572</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>207.0284809878297</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1534,19 +1536,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>181.8523372487126</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1622,7 +1624,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>97.67832954876293</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9202602248441235</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>325.8567232380378</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>80.09751710528867</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>43.44362966055525</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2144,7 +2146,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>88.08110241150655</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>42.43741174507654</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2305,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.595211067239</v>
       </c>
     </row>
     <row r="23">
@@ -2321,22 +2323,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>67.34451602363485</v>
+        <v>148.1411127632389</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2603,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>71.36683641495289</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>124.519507507708</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>165.421695385058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2803,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2849,7 +2851,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>123.2715627317515</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>98.9457413571089</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -2962,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>135.8447834840487</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>317.5475256392241</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.31383608752344</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>363.9585094926619</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3424,10 +3426,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>27.35334490128935</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>85.68764026526621</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3569,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>308.3558640927702</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3676,10 +3678,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>54.68688746169106</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.88126300749902</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3743,16 +3745,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>34.97670245206589</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>178.8846941420544</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3898,19 +3900,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>148.006412191238</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>132.7574783880936</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3983,13 +3985,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>109.6793419192572</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>338.1753487462616</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>150.2762836600692</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4144,13 +4146,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>98.32283439807702</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -4183,7 +4185,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2169.303348048851</v>
+        <v>1261.129779495428</v>
       </c>
       <c r="C2" t="n">
-        <v>1793.501845873987</v>
+        <v>851.0051888086983</v>
       </c>
       <c r="D2" t="n">
-        <v>1389.037915967048</v>
+        <v>446.5412589017589</v>
       </c>
       <c r="E2" t="n">
-        <v>974.6977004839443</v>
+        <v>95.39380529996927</v>
       </c>
       <c r="F2" t="n">
-        <v>553.6672884376319</v>
+        <v>78.40379729406089</v>
       </c>
       <c r="G2" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>312.7727131152915</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>850.932214224331</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="L2" t="n">
-        <v>1563.523614036569</v>
+        <v>1040.492788507289</v>
       </c>
       <c r="M2" t="n">
-        <v>1563.523614036569</v>
+        <v>1816.811379499043</v>
       </c>
       <c r="N2" t="n">
-        <v>2245.17458027019</v>
+        <v>2569.992396137661</v>
       </c>
       <c r="O2" t="n">
-        <v>2888.805436687295</v>
+        <v>3213.623252554766</v>
       </c>
       <c r="P2" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q2" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>2929.36208237686</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U2" t="n">
-        <v>2929.36208237686</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="V2" t="n">
-        <v>2579.524527713341</v>
+        <v>2856.691330907707</v>
       </c>
       <c r="W2" t="n">
-        <v>2579.524527713341</v>
+        <v>2472.931030042875</v>
       </c>
       <c r="X2" t="n">
-        <v>2579.524527713341</v>
+        <v>2072.287632211828</v>
       </c>
       <c r="Y2" t="n">
-        <v>2579.524527713341</v>
+        <v>1671.350959159918</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J3" t="n">
-        <v>882.8728865263604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K3" t="n">
-        <v>882.8728865263604</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L3" t="n">
-        <v>1543.961058445649</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="M3" t="n">
-        <v>1854.500502304604</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="N3" t="n">
-        <v>2579.517617692877</v>
+        <v>1403.180265604214</v>
       </c>
       <c r="O3" t="n">
-        <v>2579.517617692877</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="P3" t="n">
-        <v>2579.517617692877</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q3" t="n">
-        <v>2929.36208237686</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.8376327219938</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C4" t="n">
-        <v>225.8376327219938</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D4" t="n">
-        <v>225.8376327219938</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>225.8376327219938</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>225.8376327219938</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1348.437399245089</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U4" t="n">
-        <v>1065.639251791214</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V4" t="n">
-        <v>791.7535067307356</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W4" t="n">
-        <v>512.6838422396099</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X4" t="n">
-        <v>274.3399800992933</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y4" t="n">
-        <v>274.3399800992933</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2118.20422966046</v>
+        <v>2529.663609512759</v>
       </c>
       <c r="C5" t="n">
-        <v>1708.079638973731</v>
+        <v>2119.539018826029</v>
       </c>
       <c r="D5" t="n">
-        <v>1303.615709066791</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E5" t="n">
-        <v>889.2754935836879</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F5" t="n">
-        <v>468.2450815373754</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G5" t="n">
-        <v>144.9390043304641</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H5" t="n">
-        <v>144.9390043304641</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K5" t="n">
-        <v>596.7467427565767</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L5" t="n">
-        <v>835.6969951832094</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M5" t="n">
-        <v>1560.714110571482</v>
+        <v>1927.266335824277</v>
       </c>
       <c r="N5" t="n">
-        <v>2285.731225959755</v>
+        <v>2680.447352462895</v>
       </c>
       <c r="O5" t="n">
-        <v>2929.36208237686</v>
+        <v>3324.07820888</v>
       </c>
       <c r="P5" t="n">
-        <v>2929.36208237686</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="X5" t="n">
-        <v>2929.36208237686</v>
+        <v>3340.821462229158</v>
       </c>
       <c r="Y5" t="n">
-        <v>2528.42540932495</v>
+        <v>2939.884789177248</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K6" t="n">
-        <v>514.3934979128359</v>
+        <v>405.3153859286313</v>
       </c>
       <c r="L6" t="n">
-        <v>1175.481669832124</v>
+        <v>1066.40355784792</v>
       </c>
       <c r="M6" t="n">
-        <v>1175.481669832124</v>
+        <v>1066.40355784792</v>
       </c>
       <c r="N6" t="n">
-        <v>1175.481669832124</v>
+        <v>1066.40355784792</v>
       </c>
       <c r="O6" t="n">
-        <v>1879.438760378019</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714.7171997839999</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C7" t="n">
-        <v>543.6238273457164</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>384.1291826686265</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>223.2183675369459</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1587.986138268387</v>
+        <v>1560.248741378373</v>
       </c>
       <c r="S7" t="n">
-        <v>1401.594370148297</v>
+        <v>1560.248741378373</v>
       </c>
       <c r="T7" t="n">
-        <v>1162.045631125</v>
+        <v>1560.248741378373</v>
       </c>
       <c r="U7" t="n">
-        <v>879.2474836711237</v>
+        <v>1277.450593924497</v>
       </c>
       <c r="V7" t="n">
-        <v>879.2474836711237</v>
+        <v>1003.564848864019</v>
       </c>
       <c r="W7" t="n">
-        <v>879.2474836711237</v>
+        <v>724.4951843728934</v>
       </c>
       <c r="X7" t="n">
-        <v>879.2474836711237</v>
+        <v>486.1513222325768</v>
       </c>
       <c r="Y7" t="n">
-        <v>714.7171997839999</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1111.594046911441</v>
+        <v>2389.519378779039</v>
       </c>
       <c r="C8" t="n">
-        <v>701.4694562247106</v>
+        <v>1979.39478809231</v>
       </c>
       <c r="D8" t="n">
-        <v>297.0055263177711</v>
+        <v>1574.93085818537</v>
       </c>
       <c r="E8" t="n">
-        <v>166.6168924031362</v>
+        <v>1160.590642702267</v>
       </c>
       <c r="F8" t="n">
-        <v>149.6268843972278</v>
+        <v>739.5602306559545</v>
       </c>
       <c r="G8" t="n">
-        <v>144.9390043304641</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H8" t="n">
-        <v>144.9390043304641</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>123.1055953709714</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K8" t="n">
-        <v>123.1055953709714</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L8" t="n">
-        <v>835.6969951832094</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M8" t="n">
-        <v>1560.714110571482</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N8" t="n">
-        <v>2285.731225959755</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O8" t="n">
-        <v>2929.36208237686</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>2707.155598323719</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U8" t="n">
-        <v>2707.155598323719</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V8" t="n">
-        <v>2707.155598323719</v>
+        <v>3200.677231495439</v>
       </c>
       <c r="W8" t="n">
-        <v>2323.395297458887</v>
+        <v>3200.677231495439</v>
       </c>
       <c r="X8" t="n">
-        <v>1922.75189962784</v>
+        <v>3200.677231495439</v>
       </c>
       <c r="Y8" t="n">
-        <v>1521.81522657593</v>
+        <v>2799.740558443529</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>251.4000992101705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K9" t="n">
-        <v>707.2063554754692</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L9" t="n">
-        <v>1368.294527394758</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M9" t="n">
-        <v>1755.231972814054</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="N9" t="n">
-        <v>1755.231972814054</v>
+        <v>854.5421300433729</v>
       </c>
       <c r="O9" t="n">
-        <v>1755.231972814054</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P9" t="n">
-        <v>1755.231972814054</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>936.0019942398098</v>
+        <v>233.2105619043871</v>
       </c>
       <c r="C10" t="n">
-        <v>764.9086218015264</v>
+        <v>233.2105619043871</v>
       </c>
       <c r="D10" t="n">
-        <v>605.4139771244363</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>444.5031619927558</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>279.8720361033471</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>112.6216450288905</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>112.6216450288905</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1348.437399245089</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U10" t="n">
-        <v>1348.437399245089</v>
+        <v>1249.245532207543</v>
       </c>
       <c r="V10" t="n">
-        <v>1348.437399245089</v>
+        <v>975.3597871470647</v>
       </c>
       <c r="W10" t="n">
-        <v>1348.437399245089</v>
+        <v>696.2901226559391</v>
       </c>
       <c r="X10" t="n">
-        <v>1348.437399245089</v>
+        <v>457.9462605156224</v>
       </c>
       <c r="Y10" t="n">
-        <v>1123.701700633854</v>
+        <v>233.2105619043871</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>983.9629763010623</v>
+        <v>2443.311846829832</v>
       </c>
       <c r="C11" t="n">
-        <v>573.8383856143324</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D11" t="n">
-        <v>169.3744557073929</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E11" t="n">
-        <v>58.5872416475372</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F11" t="n">
-        <v>58.5872416475372</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K11" t="n">
-        <v>123.1055953709714</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L11" t="n">
-        <v>835.6969951832094</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M11" t="n">
-        <v>1560.714110571482</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N11" t="n">
-        <v>2285.731225959755</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O11" t="n">
-        <v>2929.36208237686</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U11" t="n">
-        <v>2929.36208237686</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="V11" t="n">
-        <v>2579.524527713341</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="W11" t="n">
-        <v>2195.764226848509</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="X11" t="n">
-        <v>1795.120829017462</v>
+        <v>3254.469699546231</v>
       </c>
       <c r="Y11" t="n">
-        <v>1394.184155965552</v>
+        <v>2853.533026494321</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L12" t="n">
-        <v>719.6754135668255</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="M12" t="n">
-        <v>719.6754135668255</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N12" t="n">
-        <v>839.4134544636129</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O12" t="n">
-        <v>1543.370545009507</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>389.1752587629107</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C13" t="n">
-        <v>218.0818863246272</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U13" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V13" t="n">
-        <v>1319.024190399633</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W13" t="n">
-        <v>1039.954525908507</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X13" t="n">
-        <v>801.6106637681904</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y13" t="n">
-        <v>576.8749651569551</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2117.27467387779</v>
+        <v>2443.311846829832</v>
       </c>
       <c r="C14" t="n">
-        <v>1707.15008319106</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D14" t="n">
-        <v>1302.686153284121</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E14" t="n">
-        <v>888.3459378010175</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F14" t="n">
-        <v>467.315525754705</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>261.9144963961027</v>
       </c>
       <c r="K14" t="n">
-        <v>58.5872416475372</v>
+        <v>800.0739975051422</v>
       </c>
       <c r="L14" t="n">
-        <v>771.1786414597752</v>
+        <v>1512.66539731738</v>
       </c>
       <c r="M14" t="n">
-        <v>1435.413521245312</v>
+        <v>2288.983988309134</v>
       </c>
       <c r="N14" t="n">
-        <v>1435.413521245312</v>
+        <v>3042.165004947752</v>
       </c>
       <c r="O14" t="n">
-        <v>2079.044377662417</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P14" t="n">
-        <v>2608.201075581568</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>3587.130882022672</v>
       </c>
       <c r="V14" t="n">
-        <v>2929.36208237686</v>
+        <v>3237.293327359153</v>
       </c>
       <c r="W14" t="n">
-        <v>2929.36208237686</v>
+        <v>2853.533026494321</v>
       </c>
       <c r="X14" t="n">
-        <v>2928.432526594189</v>
+        <v>2853.533026494321</v>
       </c>
       <c r="Y14" t="n">
-        <v>2527.495853542279</v>
+        <v>2853.533026494321</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>719.6754135668255</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M15" t="n">
-        <v>1444.692528955098</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="N15" t="n">
-        <v>1444.692528955098</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>1627.989961721529</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.1261518932039</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C19" t="n">
-        <v>137.1261518932039</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D19" t="n">
-        <v>137.1261518932039</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>137.1261518932039</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>137.1261518932039</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>137.1261518932039</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U19" t="n">
-        <v>828.6312213896092</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V19" t="n">
-        <v>828.6312213896092</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="W19" t="n">
-        <v>549.5615568984836</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="X19" t="n">
-        <v>549.5615568984836</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="Y19" t="n">
-        <v>324.8258582872483</v>
+        <v>1263.484130926395</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3175.652060380064</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C22" t="n">
         <v>3132.785987910289</v>
@@ -5938,22 +5940,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U22" t="n">
-        <v>4379.386737077264</v>
+        <v>4139.837998053967</v>
       </c>
       <c r="V22" t="n">
-        <v>4105.500992016786</v>
+        <v>3865.952252993488</v>
       </c>
       <c r="W22" t="n">
-        <v>3826.43132752566</v>
+        <v>3586.882588502363</v>
       </c>
       <c r="X22" t="n">
-        <v>3588.087465385343</v>
+        <v>3348.538726362046</v>
       </c>
       <c r="Y22" t="n">
-        <v>3363.351766774108</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5971,19 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1320.262653899312</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6072,13 +6074,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>920.0142945366232</v>
+        <v>413.9745577685416</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0142945366232</v>
+        <v>242.8811853302581</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6178,19 +6180,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>1383.093855288175</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>1383.093855288175</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.749993147859</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.0142945366232</v>
+        <v>601.6742641625859</v>
       </c>
     </row>
     <row r="26">
@@ -6251,16 +6253,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4439.978400477999</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U26" t="n">
-        <v>4182.917908737509</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V26" t="n">
-        <v>3833.080354073989</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W26" t="n">
         <v>3760.992640523532</v>
@@ -6312,7 +6314,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
         <v>1435.775802995229</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>428.968196018315</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6409,25 +6411,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.369875986873</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.369875986873</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W28" t="n">
-        <v>1537.369875986873</v>
+        <v>428.968196018315</v>
       </c>
       <c r="X28" t="n">
-        <v>1537.369875986873</v>
+        <v>428.968196018315</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>428.968196018315</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
         <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>404.1521950629049</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I29" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J29" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6542,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1111.429368843485</v>
+        <v>886.5906088412762</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>715.4972364029927</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>556.0025917259027</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>395.0917765942222</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>230.4606507048134</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6646,25 +6648,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U31" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V31" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W31" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.429368843485</v>
+        <v>1299.026013846556</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.429368843485</v>
+        <v>1074.290315235321</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2084.454703715471</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1679.990773808531</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1265.650558325428</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>844.6201462791155</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>435.8918621719477</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>124.9833647996657</v>
       </c>
       <c r="I32" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J32" t="n">
         <v>347.4291691583771</v>
@@ -6728,22 +6730,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U32" t="n">
-        <v>4405.12439279065</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V32" t="n">
-        <v>4055.286838127131</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W32" t="n">
-        <v>3671.526537262299</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X32" t="n">
-        <v>3270.883139431251</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y32" t="n">
-        <v>2869.946466379341</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>2615.69568868064</v>
+        <v>537.5348450866911</v>
       </c>
       <c r="L33" t="n">
-        <v>2615.69568868064</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>3458.672769375206</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>4332.330861486824</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6883,22 +6885,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X34" t="n">
-        <v>1436.250826191383</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y34" t="n">
         <v>1370.277254385804</v>
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C35" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
         <v>1734.602869382415</v>
@@ -7020,22 +7022,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>851.989530876386</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C37" t="n">
-        <v>851.989530876386</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="T37" t="n">
-        <v>1350.978107866783</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="U37" t="n">
-        <v>1350.978107866783</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="V37" t="n">
-        <v>1350.978107866783</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="W37" t="n">
-        <v>1264.424935881666</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="X37" t="n">
-        <v>1264.424935881666</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1039.68923727043</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U38" t="n">
-        <v>4405.12439279065</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3671.526537262299</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>3270.883139431251</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>1402.950983437843</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M39" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1182.57754799176</v>
+        <v>4011.405617385543</v>
       </c>
       <c r="C40" t="n">
-        <v>1011.484175553476</v>
+        <v>3840.31224494726</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>3680.81760027017</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>3519.906785138489</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>3355.27565924908</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>3188.025268174624</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J40" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K40" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L40" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M40" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N40" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O40" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X40" t="n">
-        <v>1384.298732171156</v>
+        <v>4423.841022390823</v>
       </c>
       <c r="Y40" t="n">
-        <v>1370.277254385804</v>
+        <v>4199.105323779588</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1333.800530964582</v>
+        <v>1483.336263548569</v>
       </c>
       <c r="C41" t="n">
-        <v>923.6759402778517</v>
+        <v>1073.211672861839</v>
       </c>
       <c r="D41" t="n">
-        <v>888.3459378010175</v>
+        <v>668.7477429548999</v>
       </c>
       <c r="E41" t="n">
-        <v>888.3459378010175</v>
+        <v>254.4075274717966</v>
       </c>
       <c r="F41" t="n">
-        <v>467.315525754705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K41" t="n">
-        <v>123.1055953709714</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L41" t="n">
-        <v>835.6969951832094</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M41" t="n">
-        <v>1560.714110571482</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N41" t="n">
-        <v>2285.731225959755</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O41" t="n">
-        <v>2929.36208237686</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>2929.36208237686</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V41" t="n">
-        <v>2929.36208237686</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="W41" t="n">
-        <v>2545.601781512029</v>
+        <v>2695.137514096016</v>
       </c>
       <c r="X41" t="n">
-        <v>2144.958383680981</v>
+        <v>2294.494116264969</v>
       </c>
       <c r="Y41" t="n">
-        <v>1744.021710629071</v>
+        <v>1893.557443213059</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K42" t="n">
-        <v>514.3934979128359</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L42" t="n">
-        <v>1175.481669832124</v>
+        <v>403.5699402716127</v>
       </c>
       <c r="M42" t="n">
-        <v>1543.370545009507</v>
+        <v>1246.547020966179</v>
       </c>
       <c r="N42" t="n">
-        <v>1543.370545009507</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O42" t="n">
-        <v>1543.370545009507</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>394.3117399752294</v>
+        <v>390.4677347575497</v>
       </c>
       <c r="C43" t="n">
-        <v>223.2183675369459</v>
+        <v>390.4677347575497</v>
       </c>
       <c r="D43" t="n">
-        <v>223.2183675369459</v>
+        <v>390.4677347575497</v>
       </c>
       <c r="E43" t="n">
-        <v>223.2183675369459</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="F43" t="n">
-        <v>58.5872416475372</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U43" t="n">
-        <v>1219.915272489911</v>
+        <v>1320.316666394272</v>
       </c>
       <c r="V43" t="n">
-        <v>1219.915272489911</v>
+        <v>1320.316666394272</v>
       </c>
       <c r="W43" t="n">
-        <v>940.8456079987855</v>
+        <v>1041.247001903146</v>
       </c>
       <c r="X43" t="n">
-        <v>806.7471449805091</v>
+        <v>802.9031397628294</v>
       </c>
       <c r="Y43" t="n">
-        <v>582.0114463692738</v>
+        <v>578.1674411515941</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>983.9629763010623</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C44" t="n">
-        <v>573.8383856143324</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D44" t="n">
-        <v>169.3744557073929</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E44" t="n">
-        <v>58.5872416475372</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F44" t="n">
-        <v>58.5872416475372</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K44" t="n">
-        <v>123.1055953709714</v>
+        <v>270.9172995859905</v>
       </c>
       <c r="L44" t="n">
-        <v>835.6969951832094</v>
+        <v>983.5086993982285</v>
       </c>
       <c r="M44" t="n">
-        <v>1560.714110571482</v>
+        <v>1759.827290389982</v>
       </c>
       <c r="N44" t="n">
-        <v>2285.731225959755</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O44" t="n">
-        <v>2929.36208237686</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>2579.524527713341</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W44" t="n">
-        <v>2195.764226848509</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X44" t="n">
-        <v>1795.120829017462</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y44" t="n">
-        <v>1394.184155965552</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>514.3934979128359</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L45" t="n">
-        <v>655.0422067214914</v>
+        <v>403.5699402716127</v>
       </c>
       <c r="M45" t="n">
-        <v>1380.059322109764</v>
+        <v>1246.547020966179</v>
       </c>
       <c r="N45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>765.748114131757</v>
+        <v>3226.431668526123</v>
       </c>
       <c r="C46" t="n">
-        <v>594.6547416934735</v>
+        <v>3074.637442606861</v>
       </c>
       <c r="D46" t="n">
-        <v>435.1600970163835</v>
+        <v>2915.142797929771</v>
       </c>
       <c r="E46" t="n">
-        <v>274.249281884703</v>
+        <v>2754.23198279809</v>
       </c>
       <c r="F46" t="n">
-        <v>274.249281884703</v>
+        <v>2589.600856908682</v>
       </c>
       <c r="G46" t="n">
-        <v>274.249281884703</v>
+        <v>2422.350465834225</v>
       </c>
       <c r="H46" t="n">
-        <v>174.9332875432111</v>
+        <v>2272.743010639681</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>2170.479514149218</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>2325.031841871456</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>2584.928942151516</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>2874.19299859201</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>3155.03178098626</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>3414.592391312734</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>3620.267831562346</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R46" t="n">
-        <v>1502.713419943787</v>
+        <v>3600.523143040257</v>
       </c>
       <c r="S46" t="n">
-        <v>1502.713419943787</v>
+        <v>3414.131374920167</v>
       </c>
       <c r="T46" t="n">
-        <v>1502.713419943787</v>
+        <v>3414.131374920167</v>
       </c>
       <c r="U46" t="n">
-        <v>1502.713419943787</v>
+        <v>3414.131374920167</v>
       </c>
       <c r="V46" t="n">
-        <v>1228.827674883309</v>
+        <v>3414.131374920167</v>
       </c>
       <c r="W46" t="n">
-        <v>1228.827674883309</v>
+        <v>3414.131374920167</v>
       </c>
       <c r="X46" t="n">
-        <v>990.4838127429923</v>
+        <v>3414.131374920167</v>
       </c>
       <c r="Y46" t="n">
-        <v>765.748114131757</v>
+        <v>3414.131374920167</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>781.4486202855296</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>570.5913923819861</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,19 +8060,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>371.2404896565539</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>428.6407545450506</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8213,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>336.8492894028778</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>445.4256246670941</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
@@ -8234,10 +8236,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>390.7747410687913</v>
       </c>
       <c r="L6" t="n">
         <v>723.8803540323523</v>
@@ -8310,10 +8312,10 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
-        <v>282.1764805785802</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>138.4936455994031</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>448.410188202353</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8690,28 +8692,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>242.782629421531</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8771,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>70.76403821083085</v>
       </c>
       <c r="N12" t="n">
-        <v>174.140909451111</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>263.4231662512933</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>764.2345474727388</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9012,13 +9014,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>724.8059320736758</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>574.6635313430244</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9480,22 +9482,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>384.4175102257753</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9720,7 +9722,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
@@ -9729,7 +9731,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9960,10 +9962,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
@@ -10188,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>897.8036858523743</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10425,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>309.8442573638428</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,25 +10670,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>741.5205988334646</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>291.8133246603422</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10899,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
@@ -10908,19 +10910,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>90.72066712971599</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11060,22 +11062,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
@@ -11139,22 +11141,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M42" t="n">
-        <v>429.1692081600164</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11297,22 +11299,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>154.3064439393123</v>
+        <v>288.3297051870488</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
@@ -11376,16 +11378,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>198.1839266478749</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
@@ -23264,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>300.5174714090151</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23309,19 +23311,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>189.6084828649073</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -23473,13 +23475,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>89.29455036116065</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23549,19 +23551,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>156.8115572743221</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>395.7167036278929</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>54.06597461814528</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.7251922248153</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>104.6677509820427</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>308.5558614412304</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>126.9450269688241</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24178,7 +24180,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.893130557883893</v>
       </c>
     </row>
     <row r="23">
@@ -24209,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>90.55518220668422</v>
+        <v>9.758585467080195</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24491,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>308.5558614412302</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>151.7594603385064</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.06664624006493</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24689,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>70.43669735679175</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>29.73310367966332</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -24901,10 +24903,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>88.57144222862047</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>54.06597461814521</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,10 +24970,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -25138,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.1745055375995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>36.46078111520819</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.066646240065</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -25372,7 +25374,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>190.5913275809481</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>88.57144222862058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>365.4425881558042</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>237.9354137837949</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25682,10 +25684,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>11.29529478912571</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>103.2029451308199</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25871,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>300.5174714090151</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -25922,10 +25924,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>41.74734910992146</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>19.10615505383143</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>49.78854624452089</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -26080,16 +26082,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>788174.7670911108</v>
+        <v>791154.9633654186</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>788174.7670911108</v>
+        <v>791154.9633654186</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>788174.7670911108</v>
+        <v>791154.9633654186</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>546060.6851777713</v>
+        <v>617681.8051106341</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>546060.6851777714</v>
+        <v>617681.805110634</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>710128.860321309</v>
+        <v>710128.8603213088</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>710128.8603213086</v>
+        <v>710128.8603213088</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>710128.8603213086</v>
+        <v>710128.8603213088</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>710128.8603213087</v>
+        <v>710128.8603213088</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>546060.6851777714</v>
+        <v>617681.805110634</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>546060.6851777713</v>
+        <v>617681.8051106338</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374629.5039746509</v>
+        <v>374629.503974651</v>
       </c>
       <c r="C2" t="n">
-        <v>374629.5039746509</v>
+        <v>374629.503974651</v>
       </c>
       <c r="D2" t="n">
         <v>374629.503974651</v>
       </c>
       <c r="E2" t="n">
-        <v>256148.1447404637</v>
+        <v>289738.3839776288</v>
       </c>
       <c r="F2" t="n">
-        <v>256148.1447404637</v>
+        <v>289738.3839776288</v>
       </c>
       <c r="G2" t="n">
-        <v>333095.9676653581</v>
+        <v>333095.9676653582</v>
       </c>
       <c r="H2" t="n">
         <v>333095.967665358</v>
@@ -26335,7 +26337,7 @@
         <v>333095.9676653581</v>
       </c>
       <c r="J2" t="n">
-        <v>333095.967665358</v>
+        <v>333095.9676653582</v>
       </c>
       <c r="K2" t="n">
         <v>333095.9676653582</v>
@@ -26344,16 +26346,16 @@
         <v>333095.967665358</v>
       </c>
       <c r="M2" t="n">
-        <v>333095.9676653579</v>
+        <v>333095.9676653581</v>
       </c>
       <c r="N2" t="n">
-        <v>333095.9676653581</v>
+        <v>333095.967665358</v>
       </c>
       <c r="O2" t="n">
-        <v>256148.1447404637</v>
+        <v>289738.3839776287</v>
       </c>
       <c r="P2" t="n">
-        <v>256148.1447404637</v>
+        <v>289738.3839776288</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140769.9845623025</v>
+        <v>110496.6256517399</v>
       </c>
       <c r="C4" t="n">
-        <v>140769.9845623025</v>
+        <v>110496.6256517399</v>
       </c>
       <c r="D4" t="n">
-        <v>140769.9845623025</v>
+        <v>110496.6256517399</v>
       </c>
       <c r="E4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="F4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398331</v>
@@ -26439,25 +26441,25 @@
         <v>30192.61954398331</v>
       </c>
       <c r="J4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="K4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="L4" t="n">
+        <v>30192.61954398331</v>
+      </c>
+      <c r="M4" t="n">
         <v>30192.61954398332</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>30192.61954398331</v>
       </c>
-      <c r="N4" t="n">
-        <v>30192.61954398332</v>
-      </c>
       <c r="O4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="P4" t="n">
-        <v>23160.83861544975</v>
+        <v>26230.44077798685</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-89718.53652287493</v>
+        <v>-134317.5603818785</v>
       </c>
       <c r="C6" t="n">
-        <v>155705.6157602201</v>
+        <v>174481.1812301653</v>
       </c>
       <c r="D6" t="n">
-        <v>155705.6157602202</v>
+        <v>174481.1812301653</v>
       </c>
       <c r="E6" t="n">
-        <v>188461.0024728857</v>
+        <v>207483.8461068961</v>
       </c>
       <c r="F6" t="n">
-        <v>188461.0024728857</v>
+        <v>207483.8461068961</v>
       </c>
       <c r="G6" t="n">
-        <v>113302.9534443875</v>
+        <v>165134.7415228689</v>
       </c>
       <c r="H6" t="n">
         <v>232038.1378765014</v>
@@ -26543,7 +26545,7 @@
         <v>232038.1378765015</v>
       </c>
       <c r="J6" t="n">
-        <v>40425.63470614854</v>
+        <v>-9053.455211235145</v>
       </c>
       <c r="K6" t="n">
         <v>232038.1378765015</v>
@@ -26552,16 +26554,16 @@
         <v>232038.1378765014</v>
       </c>
       <c r="M6" t="n">
-        <v>232038.1378765013</v>
+        <v>232038.1378765015</v>
       </c>
       <c r="N6" t="n">
-        <v>232038.1378765015</v>
+        <v>232038.1378765014</v>
       </c>
       <c r="O6" t="n">
-        <v>188461.0024728857</v>
+        <v>207483.846106896</v>
       </c>
       <c r="P6" t="n">
-        <v>188461.0024728857</v>
+        <v>207483.8461068962</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.97985762674722</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>62.56083426250058</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8053854265774</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27549,7 +27551,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27594,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>8.893130557884263</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>84.56798483125385</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>55.1123087083954</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>41.98257939627759</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.60336057687039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>281.1120657527837</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>138.7427884263822</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>61.68852608917737</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>166.7928287882034</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>688.5363295289103</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>476.9420291011019</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>313.6762059181365</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>370.8892755450506</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>241.363891340033</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>352.1354002100487</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
@@ -34954,10 +34956,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>334.9489582841759</v>
       </c>
       <c r="L6" t="n">
         <v>667.7658302215033</v>
@@ -35030,10 +35032,10 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>65.17005426609514</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>390.8459044639355</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>149.1332661406468</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>13.19975447241342</v>
       </c>
       <c r="N12" t="n">
-        <v>120.947516057361</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>190.0995749179854</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>670.9443230156933</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>667.0544530736757</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>516.9120523430244</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>328.3029864149263</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M24" t="n">
         <v>851.4920007015825</v>
@@ -36449,7 +36451,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>844.6102924586244</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>254.0184745792274</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>688.3272054397147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>234.0618456603422</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
@@ -37628,19 +37630,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>33.15638339129857</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>333.185881862945</v>
       </c>
       <c r="M42" t="n">
-        <v>371.6049244215989</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>65.17005426609514</v>
+        <v>199.1933155138316</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>142.0694028370258</v>
+        <v>333.185881862945</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1278850.202506633</v>
+        <v>1277351.515197502</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5562152.400446148</v>
+        <v>5562152.400446147</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8175039.90988662</v>
+        <v>8175039.909886619</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>347.6359790657717</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -718,16 +718,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>215.5376360322956</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>77.6746832858063</v>
       </c>
       <c r="V4" t="n">
-        <v>262.253757051989</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>158.7015500689421</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>341.5246551443416</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>42.43741174507676</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>136.1769805884549</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1147,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>265.8982128397139</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>341.5246551443416</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>113.1773371911337</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>13.88126300749924</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>28.73357969904324</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>207.0284809878297</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>29.0673606283497</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>229.489676126373</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>97.67832954876293</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1672,7 +1672,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>187.6971066458115</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>325.8567232380378</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.09751710528867</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>197.5843444330545</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>151.21301323022</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.595211067239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,13 +2326,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>361.0003448878583</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>148.1411127632389</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>104.5742821677959</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2572,10 +2572,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
@@ -2775,13 +2775,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>124.519507507708</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2851,7 +2851,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>123.2715627317515</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2860,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>39.93142548241784</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>135.8447834840487</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>31.42227043795236</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>85.29970571609803</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>155.8944499847356</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>369.6581867526364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3319,10 +3319,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3426,25 +3426,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>81.56312795822615</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>27.35334490128935</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3520,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>117.4784251967216</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>101.6945967075521</v>
       </c>
       <c r="H40" t="n">
-        <v>54.68688746169106</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3751,13 +3751,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>178.8846941420544</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>80.67372108355529</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>148.006412191238</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>201.4502751633424</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>338.1753487462616</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>179.8420580809444</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4137,25 +4137,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>150.2762836600692</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>42.43741174507674</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1261.129779495428</v>
+        <v>2443.311846829832</v>
       </c>
       <c r="C2" t="n">
-        <v>851.0051888086983</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D2" t="n">
-        <v>446.5412589017589</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E2" t="n">
-        <v>95.39380529996927</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F2" t="n">
-        <v>78.40379729406089</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G2" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H2" t="n">
         <v>73.71591722729714</v>
@@ -4333,49 +4333,49 @@
         <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>327.9013886950514</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.492788507289</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M2" t="n">
-        <v>1816.811379499043</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N2" t="n">
-        <v>2569.992396137661</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O2" t="n">
-        <v>3213.623252554766</v>
+        <v>3116.082517756141</v>
       </c>
       <c r="P2" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q2" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R2" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T2" t="n">
-        <v>3463.589377311716</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U2" t="n">
-        <v>3206.528885571226</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V2" t="n">
-        <v>2856.691330907707</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="W2" t="n">
-        <v>2472.931030042875</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="X2" t="n">
-        <v>2072.287632211828</v>
+        <v>2853.533026494321</v>
       </c>
       <c r="Y2" t="n">
-        <v>1671.350959159918</v>
+        <v>2853.533026494321</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K3" t="n">
-        <v>529.5221734925958</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L3" t="n">
-        <v>529.5221734925958</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.5221734925958</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N3" t="n">
-        <v>1403.180265604214</v>
+        <v>475.1381459967595</v>
       </c>
       <c r="O3" t="n">
-        <v>1770.360648393814</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P3" t="n">
-        <v>1770.360648393814</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q3" t="n">
-        <v>2120.205113077797</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R3" t="n">
         <v>2120.205113077797</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.71591722729714</v>
+        <v>1013.44231233389</v>
       </c>
       <c r="C4" t="n">
-        <v>73.71591722729714</v>
+        <v>842.3489398956069</v>
       </c>
       <c r="D4" t="n">
-        <v>73.71591722729714</v>
+        <v>682.8542952185169</v>
       </c>
       <c r="E4" t="n">
-        <v>73.71591722729714</v>
+        <v>521.9434800868363</v>
       </c>
       <c r="F4" t="n">
-        <v>73.71591722729714</v>
+        <v>357.3123541974276</v>
       </c>
       <c r="G4" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="H4" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I4" t="n">
         <v>73.71591722729714</v>
@@ -4512,28 +4512,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1603.114813848147</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S4" t="n">
-        <v>1603.114813848147</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T4" t="n">
-        <v>1363.566074824849</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U4" t="n">
-        <v>1080.767927370974</v>
+        <v>1013.44231233389</v>
       </c>
       <c r="V4" t="n">
-        <v>815.8651424699747</v>
+        <v>1013.44231233389</v>
       </c>
       <c r="W4" t="n">
-        <v>536.795477978849</v>
+        <v>1013.44231233389</v>
       </c>
       <c r="X4" t="n">
-        <v>298.4516158385325</v>
+        <v>1013.44231233389</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.71591722729714</v>
+        <v>1013.44231233389</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2529.663609512759</v>
+        <v>1883.979661379617</v>
       </c>
       <c r="C5" t="n">
-        <v>2119.539018826029</v>
+        <v>1473.855070692887</v>
       </c>
       <c r="D5" t="n">
-        <v>1715.075088919089</v>
+        <v>1069.391140785947</v>
       </c>
       <c r="E5" t="n">
-        <v>1300.734873435986</v>
+        <v>655.050925302844</v>
       </c>
       <c r="F5" t="n">
-        <v>879.7044613896738</v>
+        <v>234.0205132565316</v>
       </c>
       <c r="G5" t="n">
-        <v>470.976177282506</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H5" t="n">
-        <v>160.067679910224</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I5" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K5" t="n">
-        <v>866.0608898040909</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L5" t="n">
-        <v>1578.652289616329</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M5" t="n">
-        <v>1927.266335824277</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N5" t="n">
-        <v>2680.447352462895</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O5" t="n">
-        <v>3324.07820888</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P5" t="n">
-        <v>3324.07820888</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q5" t="n">
-        <v>3645.239215675292</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R5" t="n">
         <v>3685.795861364857</v>
@@ -4600,19 +4600,19 @@
         <v>3685.795861364857</v>
       </c>
       <c r="U5" t="n">
-        <v>3685.795861364857</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V5" t="n">
-        <v>3685.795861364857</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="W5" t="n">
-        <v>3685.795861364857</v>
+        <v>2695.137514096016</v>
       </c>
       <c r="X5" t="n">
-        <v>3340.821462229158</v>
+        <v>2695.137514096016</v>
       </c>
       <c r="Y5" t="n">
-        <v>2939.884789177248</v>
+        <v>2294.200841044106</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>73.71591722729714</v>
+        <v>160.3336041986436</v>
       </c>
       <c r="K6" t="n">
-        <v>405.3153859286313</v>
+        <v>616.1398604639423</v>
       </c>
       <c r="L6" t="n">
-        <v>1066.40355784792</v>
+        <v>1277.228032383231</v>
       </c>
       <c r="M6" t="n">
-        <v>1066.40355784792</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="N6" t="n">
-        <v>1066.40355784792</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O6" t="n">
-        <v>1770.360648393814</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P6" t="n">
-        <v>1770.360648393814</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q6" t="n">
         <v>2120.205113077797</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.71591722729714</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="C7" t="n">
-        <v>73.71591722729714</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="D7" t="n">
-        <v>73.71591722729714</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="E7" t="n">
-        <v>73.71591722729714</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F7" t="n">
-        <v>73.71591722729714</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G7" t="n">
-        <v>73.71591722729714</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H7" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I7" t="n">
         <v>73.71591722729714</v>
@@ -4749,28 +4749,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1560.248741378373</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S7" t="n">
-        <v>1560.248741378373</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T7" t="n">
-        <v>1560.248741378373</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U7" t="n">
-        <v>1277.450593924497</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V7" t="n">
-        <v>1003.564848864019</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="W7" t="n">
-        <v>724.4951843728934</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="X7" t="n">
-        <v>486.1513222325768</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="Y7" t="n">
-        <v>261.4156236213415</v>
+        <v>671.5509352813797</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2389.519378779039</v>
+        <v>2529.663609512759</v>
       </c>
       <c r="C8" t="n">
-        <v>1979.39478809231</v>
+        <v>2119.539018826029</v>
       </c>
       <c r="D8" t="n">
-        <v>1574.93085818537</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E8" t="n">
-        <v>1160.590642702267</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F8" t="n">
-        <v>739.5602306559545</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G8" t="n">
         <v>470.976177282506</v>
@@ -4804,25 +4804,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K8" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L8" t="n">
-        <v>1324.466818148575</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M8" t="n">
-        <v>2100.785409140329</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="N8" t="n">
-        <v>2853.966425778947</v>
+        <v>2331.833306254947</v>
       </c>
       <c r="O8" t="n">
-        <v>3497.597282196052</v>
+        <v>2975.464162672052</v>
       </c>
       <c r="P8" t="n">
-        <v>3685.795861364857</v>
+        <v>3504.620860591203</v>
       </c>
       <c r="Q8" t="n">
         <v>3685.795861364857</v>
@@ -4831,25 +4831,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T8" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U8" t="n">
-        <v>3550.514786158958</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V8" t="n">
-        <v>3200.677231495439</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W8" t="n">
-        <v>3200.677231495439</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="X8" t="n">
-        <v>3200.677231495439</v>
+        <v>3340.821462229158</v>
       </c>
       <c r="Y8" t="n">
-        <v>2799.740558443529</v>
+        <v>2939.884789177248</v>
       </c>
     </row>
     <row r="9">
@@ -4889,10 +4889,10 @@
         <v>73.71591722729714</v>
       </c>
       <c r="L9" t="n">
-        <v>734.8040891465854</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M9" t="n">
-        <v>734.8040891465854</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N9" t="n">
         <v>854.5421300433729</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>233.2105619043871</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C10" t="n">
-        <v>233.2105619043871</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D10" t="n">
-        <v>73.71591722729714</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E10" t="n">
-        <v>73.71591722729714</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F10" t="n">
-        <v>73.71591722729714</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G10" t="n">
-        <v>73.71591722729714</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H10" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I10" t="n">
         <v>73.71591722729714</v>
@@ -4992,22 +4992,22 @@
         <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1363.566074824849</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U10" t="n">
-        <v>1249.245532207543</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V10" t="n">
-        <v>975.3597871470647</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W10" t="n">
-        <v>696.2901226559391</v>
+        <v>1589.093336062795</v>
       </c>
       <c r="X10" t="n">
-        <v>457.9462605156224</v>
+        <v>1350.749473922478</v>
       </c>
       <c r="Y10" t="n">
-        <v>233.2105619043871</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2443.311846829832</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C11" t="n">
-        <v>2033.187256143102</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D11" t="n">
-        <v>1628.723326236163</v>
+        <v>925.8082346953897</v>
       </c>
       <c r="E11" t="n">
-        <v>1214.38311075306</v>
+        <v>511.4680192122864</v>
       </c>
       <c r="F11" t="n">
-        <v>793.352698706747</v>
+        <v>511.4680192122864</v>
       </c>
       <c r="G11" t="n">
-        <v>384.6244145995792</v>
+        <v>102.7397351051186</v>
       </c>
       <c r="H11" t="n">
         <v>73.71591722729714</v>
@@ -5041,25 +5041,25 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K11" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L11" t="n">
-        <v>1324.466818148575</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="M11" t="n">
-        <v>2100.785409140329</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N11" t="n">
-        <v>2853.966425778947</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O11" t="n">
-        <v>3497.597282196052</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P11" t="n">
-        <v>3645.239215675292</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q11" t="n">
         <v>3645.239215675292</v>
@@ -5071,22 +5071,22 @@
         <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>3463.589377311716</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U11" t="n">
-        <v>3463.589377311716</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V11" t="n">
-        <v>3463.589377311716</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.589377311716</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.469699546231</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y11" t="n">
-        <v>2853.533026494321</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="12">
@@ -5123,13 +5123,13 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>529.5221734925958</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>529.5221734925958</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M12" t="n">
-        <v>542.5899304202851</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="N12" t="n">
         <v>1416.248022531903</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
         <v>73.71591722729714</v>
@@ -5226,25 +5226,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1603.114813848147</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T13" t="n">
-        <v>1603.114813848147</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U13" t="n">
-        <v>1603.114813848147</v>
+        <v>894.3761592508838</v>
       </c>
       <c r="V13" t="n">
-        <v>1603.114813848147</v>
+        <v>620.4904141904058</v>
       </c>
       <c r="W13" t="n">
-        <v>1603.114813848147</v>
+        <v>341.4207496992801</v>
       </c>
       <c r="X13" t="n">
-        <v>1575.485172533713</v>
+        <v>103.0768875589635</v>
       </c>
       <c r="Y13" t="n">
-        <v>1350.749473922478</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2443.311846829832</v>
+        <v>1937.006557005929</v>
       </c>
       <c r="C14" t="n">
-        <v>2033.187256143102</v>
+        <v>1937.006557005929</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.723326236163</v>
+        <v>1532.542627098989</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.38311075306</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F14" t="n">
-        <v>793.352698706747</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G14" t="n">
-        <v>384.6244145995792</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H14" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I14" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>261.9144963961027</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>800.0739975051422</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L14" t="n">
-        <v>1512.66539731738</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M14" t="n">
-        <v>2288.983988309134</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N14" t="n">
-        <v>3042.165004947752</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O14" t="n">
-        <v>3685.795861364857</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P14" t="n">
         <v>3685.795861364857</v>
@@ -5305,25 +5305,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T14" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U14" t="n">
-        <v>3587.130882022672</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V14" t="n">
-        <v>3237.293327359153</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W14" t="n">
-        <v>2853.533026494321</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X14" t="n">
-        <v>2853.533026494321</v>
+        <v>1937.006557005929</v>
       </c>
       <c r="Y14" t="n">
-        <v>2853.533026494321</v>
+        <v>1937.006557005929</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>73.71591722729714</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L15" t="n">
-        <v>734.8040891465854</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M15" t="n">
-        <v>1416.248022531903</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="N15" t="n">
-        <v>1416.248022531903</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="O15" t="n">
-        <v>2120.205113077797</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P15" t="n">
         <v>2120.205113077797</v>
@@ -5460,25 +5460,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U16" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V16" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W16" t="n">
-        <v>256.1480313746799</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X16" t="n">
-        <v>73.71591722729714</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y16" t="n">
         <v>73.71591722729714</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E17" t="n">
         <v>1320.262653899312</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4439.978400477999</v>
+        <v>4337.310772309269</v>
       </c>
       <c r="U17" t="n">
-        <v>4439.978400477999</v>
+        <v>4080.250280568779</v>
       </c>
       <c r="V17" t="n">
-        <v>4090.140845814479</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="18">
@@ -5594,13 +5594,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M18" t="n">
         <v>1228.182536368609</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.369875986873</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1537.369875986873</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V19" t="n">
-        <v>1263.484130926395</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W19" t="n">
-        <v>1263.484130926395</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X19" t="n">
-        <v>1263.484130926395</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="Y19" t="n">
-        <v>1263.484130926395</v>
+        <v>440.4380487617572</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5785,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>874.0699105066985</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>906.7368574189954</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1384.62945858261</v>
       </c>
       <c r="T22" t="n">
-        <v>4422.636145507842</v>
+        <v>1145.080719559312</v>
       </c>
       <c r="U22" t="n">
-        <v>4139.837998053967</v>
+        <v>1145.080719559312</v>
       </c>
       <c r="V22" t="n">
-        <v>3865.952252993488</v>
+        <v>1145.080719559312</v>
       </c>
       <c r="W22" t="n">
-        <v>3586.882588502363</v>
+        <v>1145.080719559312</v>
       </c>
       <c r="X22" t="n">
-        <v>3348.538726362046</v>
+        <v>906.7368574189954</v>
       </c>
       <c r="Y22" t="n">
-        <v>3132.785987910289</v>
+        <v>906.7368574189954</v>
       </c>
     </row>
     <row r="23">
@@ -5974,10 +5974,10 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G23" t="n">
         <v>93.2436976906228</v>
@@ -6071,22 +6071,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>423.0977207349383</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M24" t="n">
-        <v>1266.074801429505</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N24" t="n">
-        <v>2139.732893541123</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.9745577685416</v>
+        <v>690.3731179859554</v>
       </c>
       <c r="C25" t="n">
-        <v>242.8811853302581</v>
+        <v>519.279745547672</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>359.785100870582</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>198.8742857389014</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>198.8742857389014</v>
       </c>
       <c r="G25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.093855288175</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U25" t="n">
-        <v>1100.295707834299</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V25" t="n">
-        <v>826.4099627738212</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="W25" t="n">
-        <v>826.4099627738212</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="X25" t="n">
-        <v>826.4099627738212</v>
+        <v>915.1088165971908</v>
       </c>
       <c r="Y25" t="n">
-        <v>601.6742641625859</v>
+        <v>690.3731179859554</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U26" t="n">
-        <v>4494.590496051882</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>428.968196018315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>428.968196018315</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>428.968196018315</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>428.968196018315</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629049</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6490,22 +6490,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
         <v>2873.060806957647</v>
@@ -6548,19 +6548,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>886.5906088412762</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>715.4972364029927</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>556.0025917259027</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>395.0917765942222</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>230.4606507048134</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>1537.369875986873</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>1537.369875986873</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>1299.026013846556</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>1074.290315235321</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2494.579294402201</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C32" t="n">
-        <v>2084.454703715471</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D32" t="n">
-        <v>1679.990773808531</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E32" t="n">
-        <v>1265.650558325428</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F32" t="n">
-        <v>844.6201462791155</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G32" t="n">
-        <v>435.8918621719477</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H32" t="n">
-        <v>124.9833647996657</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
         <v>347.4291691583771</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.978400477999</v>
+        <v>4440.742490420091</v>
       </c>
       <c r="U32" t="n">
-        <v>4439.978400477999</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V32" t="n">
-        <v>4090.140845814479</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W32" t="n">
-        <v>3706.380544949648</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X32" t="n">
-        <v>3305.7371471186</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y32" t="n">
-        <v>2904.80047406669</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>537.5348450866911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>1198.623017005979</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.623017005979</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N33" t="n">
-        <v>1198.623017005979</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O33" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H34" t="n">
         <v>209.5897435862967</v>
@@ -6888,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.642594311473</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X34" t="n">
-        <v>1595.012952997039</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="Y34" t="n">
-        <v>1370.277254385804</v>
+        <v>367.0588849850195</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2139.066799289355</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
         <v>2139.066799289355</v>
@@ -6967,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>966.9017898022406</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4222.119838211426</v>
+        <v>175.630695628225</v>
       </c>
       <c r="C37" t="n">
-        <v>4051.026465773143</v>
+        <v>175.630695628225</v>
       </c>
       <c r="D37" t="n">
-        <v>3891.531821096053</v>
+        <v>175.630695628225</v>
       </c>
       <c r="E37" t="n">
-        <v>3730.621005964372</v>
+        <v>175.630695628225</v>
       </c>
       <c r="F37" t="n">
-        <v>3565.989880074963</v>
+        <v>175.630695628225</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000507</v>
+        <v>175.630695628225</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>175.630695628225</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4634.555243216706</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4634.555243216706</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4634.555243216706</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4634.555243216706</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>4634.555243216706</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>4634.555243216706</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X37" t="n">
-        <v>4634.555243216706</v>
+        <v>588.0661006335047</v>
       </c>
       <c r="Y37" t="n">
-        <v>4409.819544605471</v>
+        <v>363.3304020222694</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H38" t="n">
         <v>93.2436976906228</v>
@@ -7174,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7204,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4408.238733368956</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V38" t="n">
-        <v>4058.401178705436</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W38" t="n">
-        <v>3674.640877840605</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.182536368609</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N39" t="n">
-        <v>1228.182536368609</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O39" t="n">
         <v>1228.182536368609</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4011.405617385543</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="C40" t="n">
-        <v>3840.31224494726</v>
+        <v>195.965512546736</v>
       </c>
       <c r="D40" t="n">
-        <v>3680.81760027017</v>
+        <v>195.965512546736</v>
       </c>
       <c r="E40" t="n">
-        <v>3519.906785138489</v>
+        <v>195.965512546736</v>
       </c>
       <c r="F40" t="n">
-        <v>3355.27565924908</v>
+        <v>195.965512546736</v>
       </c>
       <c r="G40" t="n">
-        <v>3188.025268174624</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V40" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W40" t="n">
-        <v>4662.18488453114</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X40" t="n">
-        <v>4423.841022390823</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="Y40" t="n">
-        <v>4199.105323779588</v>
+        <v>367.0588849850195</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1483.336263548569</v>
+        <v>2443.311846829832</v>
       </c>
       <c r="C41" t="n">
-        <v>1073.211672861839</v>
+        <v>2033.187256143102</v>
       </c>
       <c r="D41" t="n">
-        <v>668.7477429548999</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E41" t="n">
-        <v>254.4075274717966</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F41" t="n">
-        <v>73.71591722729714</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G41" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H41" t="n">
         <v>73.71591722729714</v>
@@ -7411,28 +7411,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K41" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L41" t="n">
-        <v>1324.466818148575</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M41" t="n">
-        <v>2100.785409140329</v>
+        <v>2041.74049432223</v>
       </c>
       <c r="N41" t="n">
-        <v>2853.966425778947</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="O41" t="n">
-        <v>3497.597282196052</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P41" t="n">
-        <v>3685.795861364857</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q41" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R41" t="n">
         <v>3685.795861364857</v>
@@ -7444,19 +7444,19 @@
         <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>3428.735369624367</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V41" t="n">
-        <v>3078.897814960848</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W41" t="n">
-        <v>2695.137514096016</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="X41" t="n">
-        <v>2294.494116264969</v>
+        <v>3254.469699546231</v>
       </c>
       <c r="Y41" t="n">
-        <v>1893.557443213059</v>
+        <v>2853.533026494321</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K42" t="n">
-        <v>73.71591722729714</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L42" t="n">
-        <v>403.5699402716127</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="M42" t="n">
-        <v>1246.547020966179</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="N42" t="n">
-        <v>2120.205113077797</v>
+        <v>1190.610345411884</v>
       </c>
       <c r="O42" t="n">
-        <v>2120.205113077797</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P42" t="n">
         <v>2120.205113077797</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>390.4677347575497</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="C43" t="n">
-        <v>390.4677347575497</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="D43" t="n">
-        <v>390.4677347575497</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="E43" t="n">
-        <v>240.9663083017537</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="F43" t="n">
-        <v>240.9663083017537</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G43" t="n">
-        <v>73.71591722729714</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H43" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I43" t="n">
         <v>73.71591722729714</v>
@@ -7596,25 +7596,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>1603.114813848147</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T43" t="n">
-        <v>1603.114813848147</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="U43" t="n">
-        <v>1320.316666394272</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="V43" t="n">
-        <v>1320.316666394272</v>
+        <v>1177.17430670476</v>
       </c>
       <c r="W43" t="n">
-        <v>1041.247001903146</v>
+        <v>898.104642213634</v>
       </c>
       <c r="X43" t="n">
-        <v>802.9031397628294</v>
+        <v>694.6195157860153</v>
       </c>
       <c r="Y43" t="n">
-        <v>578.1674411515941</v>
+        <v>694.6195157860153</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2132.40334945755</v>
+        <v>2120.935325405591</v>
       </c>
       <c r="C44" t="n">
-        <v>1722.27875877082</v>
+        <v>1710.810734718861</v>
       </c>
       <c r="D44" t="n">
-        <v>1317.814828863881</v>
+        <v>1306.346804811922</v>
       </c>
       <c r="E44" t="n">
-        <v>903.4746133807774</v>
+        <v>892.0065893288184</v>
       </c>
       <c r="F44" t="n">
-        <v>482.444201334465</v>
+        <v>470.976177282506</v>
       </c>
       <c r="G44" t="n">
-        <v>73.71591722729714</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H44" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I44" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K44" t="n">
-        <v>270.9172995859905</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L44" t="n">
-        <v>983.5086993982285</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M44" t="n">
-        <v>1759.827290389982</v>
+        <v>2082.297140011795</v>
       </c>
       <c r="N44" t="n">
-        <v>2513.0083070286</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="O44" t="n">
-        <v>3156.639163445705</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P44" t="n">
-        <v>3685.795861364857</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q44" t="n">
         <v>3685.795861364857</v>
@@ -7678,22 +7678,22 @@
         <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>3685.795861364857</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U44" t="n">
-        <v>3685.795861364857</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="V44" t="n">
-        <v>3685.795861364857</v>
+        <v>3113.751822648197</v>
       </c>
       <c r="W44" t="n">
-        <v>3344.204600004997</v>
+        <v>3113.751822648197</v>
       </c>
       <c r="X44" t="n">
-        <v>2943.561202173949</v>
+        <v>2932.09317812199</v>
       </c>
       <c r="Y44" t="n">
-        <v>2542.624529122039</v>
+        <v>2531.15650507008</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K45" t="n">
-        <v>73.71591722729714</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L45" t="n">
-        <v>403.5699402716127</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="M45" t="n">
-        <v>1246.547020966179</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N45" t="n">
-        <v>2120.205113077797</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O45" t="n">
-        <v>2120.205113077797</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P45" t="n">
-        <v>2120.205113077797</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q45" t="n">
         <v>2120.205113077797</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3226.431668526123</v>
+        <v>116.5819896970716</v>
       </c>
       <c r="C46" t="n">
-        <v>3074.637442606861</v>
+        <v>116.5819896970716</v>
       </c>
       <c r="D46" t="n">
-        <v>2915.142797929771</v>
+        <v>116.5819896970716</v>
       </c>
       <c r="E46" t="n">
-        <v>2754.23198279809</v>
+        <v>116.5819896970716</v>
       </c>
       <c r="F46" t="n">
-        <v>2589.600856908682</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G46" t="n">
-        <v>2422.350465834225</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>2272.743010639681</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>2170.479514149218</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>2325.031841871456</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>2584.928942151516</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>2874.19299859201</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>3155.03178098626</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>3414.592391312734</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>3620.267831562346</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>3600.523143040257</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>3414.131374920167</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>3414.131374920167</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U46" t="n">
-        <v>3414.131374920167</v>
+        <v>1320.316666394272</v>
       </c>
       <c r="V46" t="n">
-        <v>3414.131374920167</v>
+        <v>1046.430921333794</v>
       </c>
       <c r="W46" t="n">
-        <v>3414.131374920167</v>
+        <v>767.3612568426679</v>
       </c>
       <c r="X46" t="n">
-        <v>3414.131374920167</v>
+        <v>529.0173947023513</v>
       </c>
       <c r="Y46" t="n">
-        <v>3414.131374920167</v>
+        <v>304.281696091116</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L2" t="n">
         <v>815.2746908024792</v>
@@ -7993,16 +7993,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>101.2005034130957</v>
       </c>
       <c r="P2" t="n">
-        <v>570.5913923819861</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
@@ -8069,19 +8069,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507827</v>
       </c>
       <c r="O3" t="n">
-        <v>428.6407545450506</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
         <v>632.7318453389136</v>
@@ -8224,7 +8224,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>445.4256246670941</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
         <v>853.701196452193</v>
@@ -8233,13 +8233,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>138.8618519023702</v>
       </c>
       <c r="K6" t="n">
-        <v>390.7747410687913</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8461,7 +8461,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>877.4504173780091</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
@@ -8470,10 +8470,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>283.7489381988693</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>273.0388556856709</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8537,13 +8537,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>174.1409094511112</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O9" t="n">
         <v>768.8192472281761</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4504173780091</v>
+        <v>630.7132023368783</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8707,10 +8707,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>242.782629421531</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8771,16 +8771,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>70.76403821083085</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.4231662512933</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8944,7 +8944,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
@@ -9008,22 +9008,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>429.3564034215992</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M18" t="n">
-        <v>75.79096100447751</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>384.4175102257753</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>548.7963290415029</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9719,25 +9719,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>389.300405673794</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>643.3578456484137</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10196,13 +10196,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>897.8036858523743</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
@@ -10211,7 +10211,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10430,10 +10430,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>309.8442573638428</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10442,7 +10442,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10451,7 +10451,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,22 +10664,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>291.8133246603422</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10688,7 +10688,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>75.79096100447751</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11068,22 +11068,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780091</v>
+        <v>561.0560877963399</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>283.7489381988693</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>389.300405673794</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>429.3564034215992</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>288.3297051870488</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780091</v>
+        <v>602.0223965736782</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>87.31214281472352</v>
@@ -11378,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>743.556791225981</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>279.065832699516</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23311,19 +23311,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>189.6084828649073</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.4209809967732</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>180.7071372018993</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>156.8115572743221</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>32.28731256679822</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>54.06597461814528</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.7251922248153</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>24.90399719206846</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>33.31483720866882</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.893130557883893</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>9.758585467080195</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>61.00360499591615</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24414,22 +24414,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24612,7 +24612,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>151.7594603385064</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>223.0676163851326</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>29.73310367966332</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>54.06597461814521</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.407256995628103</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>33.61945747849096</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.066646240065</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>137.0114616263634</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.88329045615991</v>
       </c>
       <c r="H40" t="n">
-        <v>93.42449318090684</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25602,16 +25602,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>237.9354137837949</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25684,16 +25684,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>315.9632427691817</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>11.29529478912571</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>34.510148355571</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>41.74734910992146</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>216.7949057717926</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>19.10615505383143</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>120.5474028854379</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>617681.8051106341</v>
+        <v>617681.8051106338</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>617681.805110634</v>
+        <v>617681.8051106341</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>710128.8603213088</v>
+        <v>710128.8603213087</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>710128.8603213088</v>
+        <v>710128.8603213087</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>710128.8603213087</v>
+        <v>710128.8603213086</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>710128.8603213088</v>
+        <v>710128.860321309</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>710128.8603213087</v>
+        <v>710128.860321309</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>710128.8603213088</v>
+        <v>710128.8603213087</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>617681.8051106338</v>
+        <v>617681.8051106341</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374629.503974651</v>
+        <v>374629.5039746511</v>
       </c>
       <c r="C2" t="n">
-        <v>374629.503974651</v>
+        <v>374629.5039746511</v>
       </c>
       <c r="D2" t="n">
         <v>374629.503974651</v>
       </c>
       <c r="E2" t="n">
-        <v>289738.3839776288</v>
+        <v>289738.3839776287</v>
       </c>
       <c r="F2" t="n">
-        <v>289738.3839776288</v>
+        <v>289738.383977629</v>
       </c>
       <c r="G2" t="n">
         <v>333095.9676653582</v>
       </c>
       <c r="H2" t="n">
-        <v>333095.967665358</v>
+        <v>333095.9676653582</v>
       </c>
       <c r="I2" t="n">
         <v>333095.9676653581</v>
@@ -26343,10 +26343,10 @@
         <v>333095.9676653582</v>
       </c>
       <c r="L2" t="n">
+        <v>333095.9676653582</v>
+      </c>
+      <c r="M2" t="n">
         <v>333095.967665358</v>
-      </c>
-      <c r="M2" t="n">
-        <v>333095.9676653581</v>
       </c>
       <c r="N2" t="n">
         <v>333095.967665358</v>
@@ -26441,7 +26441,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="J4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="K4" t="n">
         <v>30192.61954398331</v>
@@ -26450,7 +26450,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="M4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="N4" t="n">
         <v>30192.61954398331</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134317.5603818785</v>
+        <v>-134317.5603818784</v>
       </c>
       <c r="C6" t="n">
-        <v>174481.1812301653</v>
+        <v>174481.1812301654</v>
       </c>
       <c r="D6" t="n">
         <v>174481.1812301653</v>
       </c>
       <c r="E6" t="n">
-        <v>207483.8461068961</v>
+        <v>207114.7542808221</v>
       </c>
       <c r="F6" t="n">
-        <v>207483.8461068961</v>
+        <v>207114.7542808223</v>
       </c>
       <c r="G6" t="n">
-        <v>165134.7415228689</v>
+        <v>164954.1609302198</v>
       </c>
       <c r="H6" t="n">
-        <v>232038.1378765014</v>
+        <v>231857.5572838525</v>
       </c>
       <c r="I6" t="n">
-        <v>232038.1378765015</v>
+        <v>231857.5572838524</v>
       </c>
       <c r="J6" t="n">
-        <v>-9053.455211235145</v>
+        <v>-9234.03580388418</v>
       </c>
       <c r="K6" t="n">
-        <v>232038.1378765015</v>
+        <v>231857.5572838525</v>
       </c>
       <c r="L6" t="n">
-        <v>232038.1378765014</v>
+        <v>231857.5572838525</v>
       </c>
       <c r="M6" t="n">
-        <v>232038.1378765015</v>
+        <v>231857.5572838523</v>
       </c>
       <c r="N6" t="n">
-        <v>232038.1378765014</v>
+        <v>231857.5572838523</v>
       </c>
       <c r="O6" t="n">
-        <v>207483.846106896</v>
+        <v>207114.7542808221</v>
       </c>
       <c r="P6" t="n">
-        <v>207483.8461068962</v>
+        <v>207114.7542808222</v>
       </c>
     </row>
   </sheetData>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>62.56083426250058</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>181.0993278204414</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>202.2954826935308</v>
       </c>
       <c r="V4" t="n">
-        <v>8.893130557884263</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>245.9394511971541</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>55.1123087083954</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -27785,16 +27785,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>41.98257939627759</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>134.9699070214184</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>138.7427884263822</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -27912,13 +27912,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>55.1123087083954</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>166.7928287882034</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>262.3977048387151</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34701,7 +34701,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L2" t="n">
         <v>719.7892927396343</v>
@@ -34713,16 +34713,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>8.010727787312575</v>
       </c>
       <c r="P2" t="n">
-        <v>476.9420291011019</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,19 +34789,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570327</v>
       </c>
       <c r="O3" t="n">
-        <v>370.8892755450506</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>543.5954556656965</v>
@@ -34944,7 +34944,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>352.1354002100487</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
         <v>760.7889056955737</v>
@@ -34953,13 +34953,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>87.49261310237019</v>
       </c>
       <c r="K6" t="n">
-        <v>334.9489582841759</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35181,7 +35181,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>784.1601929209636</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
@@ -35190,10 +35190,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>190.0995749179851</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>183.0050512865189</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>120.9475160573612</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O9" t="n">
         <v>711.0677682281761</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>784.1601929209636</v>
+        <v>537.4229778798328</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35427,10 +35427,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>149.1332661406468</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>13.19975447241342</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.0995749179854</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35664,7 +35664,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>371.6049244215992</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M18" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>328.3029864149263</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>333.1858818629449</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>585.6063666484137</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>844.6102924586244</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>254.0184745792274</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,7 +37162,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
@@ -37171,7 +37171,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>234.0618456603422</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37408,7 +37408,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37788,22 +37788,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>784.1601929209636</v>
+        <v>467.7658633392944</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>190.0995749179851</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>333.185881862945</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>371.6049244215992</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>199.1933155138316</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>784.1601929209636</v>
+        <v>508.7321721166327</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>333.185881862945</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>685.9925074875636</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
